--- a/pred_ohlcv/54_21/2020-01-26 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 BCD ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>6089.859522870003</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>8949.401722870003</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>8950.201722870002</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>8910.201722870002</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>8911.001722870002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>4599.915822870002</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3818.710022870002</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>3819.510022870002</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>3819.510022870002</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2827.110022870002</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2827.910022870002</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2826.210022870002</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2828.610022870002</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1938.610022870002</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2442.705437980002</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2371.801237980002</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2382.717837980003</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-8660.007062019997</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-8659.207062019997</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-8658.407062019998</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-9344.616862019999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-35461.07176202001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-47067.09836787001</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-47050.30057957002</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-44599.14247957001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-44629.14247957001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-44628.14247957001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-45130.66987957001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-45424.66987957001</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-46130.66987957001</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-46129.82847957002</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-36526.81587957001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-42448.38785925003</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-54493.76605925003</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-54581.47325925002</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-55081.47325925002</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-53329.28595925002</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-53789.28595925002</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-49718.28595925002</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-50694.19415925002</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-55489.45590689002</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-55843.15590689002</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-55832.18740689001</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-55861.18740689001</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-53934.32930689002</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-53934.32930689002</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-53933.32930689002</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-52895.22930689002</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-52448.21460689002</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-50533.31260689002</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-51403.31260689002</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-51402.31260689002</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-51402.31260689002</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-51385.31260689002</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-51358.31260689002</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-51977.07560689002</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 BCD ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>9807.689522870003</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -782,7 +782,7 @@
         <v>8910.201722870002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>8911.001722870002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>4599.915822870002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3818.710022870002</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>3819.510022870002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>3819.510022870002</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2827.110022870002</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2827.910022870002</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2826.210022870002</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2828.610022870002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1938.610022870002</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-35461.07176202001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-47067.09836787001</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-47050.30057957002</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-44599.14247957001</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-44629.14247957001</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-44628.14247957001</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-45130.66987957001</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-45424.66987957001</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-46130.66987957001</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-46129.82847957002</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-36526.81587957001</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-42448.38785925003</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-54493.76605925003</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-54581.47325925002</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-55081.47325925002</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-53329.28595925002</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-53789.28595925002</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-49718.28595925002</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-55843.15590689002</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-55832.18740689001</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-55861.18740689001</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-53934.32930689002</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-53934.32930689002</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-53933.32930689002</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-52895.22930689002</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-52448.21460689002</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-50533.31260689002</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-51403.31260689002</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-51402.31260689002</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-51402.31260689002</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-51385.31260689002</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-51358.31260689002</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-51927.07560689002</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-51977.07560689002</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
